--- a/stata/output/1Jun2017/test.xlsx
+++ b/stata/output/1Jun2017/test.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="y" sheetId="2" r:id="rId2"/>
     <sheet name="x" sheetId="3" r:id="rId3"/>
     <sheet name="协变量" sheetId="4" r:id="rId4"/>
+    <sheet name="全部" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2484,7 +2485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
@@ -3121,4 +3122,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>